--- a/spot_check_QA.xlsx
+++ b/spot_check_QA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryankish/Documents/Northwestern/Curriculum/Spring/MSAI 490 Practicum in Intelligent Systems/advanced_rag_team_twain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE436CE-9376-9749-A563-54DE72CE37CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E3F061-0E95-BD4B-9B93-591D7FC0A0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="760" windowWidth="24220" windowHeight="20860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="8940" windowWidth="24220" windowHeight="20860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1034,7 +1034,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1042,22 +1042,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1367,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="93" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1380,7 +1374,7 @@
     <col min="5" max="5" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1458,10 +1452,10 @@
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1475,10 +1469,10 @@
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1492,10 +1486,10 @@
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1509,10 +1503,10 @@
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1526,10 +1520,10 @@
       <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1543,10 +1537,10 @@
       <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1560,10 +1554,10 @@
       <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1577,10 +1571,10 @@
       <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1594,10 +1588,10 @@
       <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1611,10 +1605,10 @@
       <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1628,10 +1622,10 @@
       <c r="C15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1645,10 +1639,10 @@
       <c r="C16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1662,10 +1656,10 @@
       <c r="C17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1679,10 +1673,10 @@
       <c r="C18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1696,10 +1690,10 @@
       <c r="C19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1713,10 +1707,10 @@
       <c r="C20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1730,10 +1724,10 @@
       <c r="C21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="D21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1747,7 +1741,7 @@
       <c r="C22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -1764,10 +1758,10 @@
       <c r="C23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="8" t="s">
+      <c r="D23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1781,10 +1775,10 @@
       <c r="C24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="D24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1798,10 +1792,10 @@
       <c r="C25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="D25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1815,14 +1809,15 @@
       <c r="C26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="D26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>